--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H2">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I2">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J2">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N2">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q2">
-        <v>79.57143410068667</v>
+        <v>523.4377153342481</v>
       </c>
       <c r="R2">
-        <v>716.14290690618</v>
+        <v>4710.939438008232</v>
       </c>
       <c r="S2">
-        <v>0.0351578703165069</v>
+        <v>0.1631274145983724</v>
       </c>
       <c r="T2">
-        <v>0.03515787031650691</v>
+        <v>0.1631274145983725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H3">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I3">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J3">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P3">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q3">
-        <v>953.5659037745316</v>
+        <v>1233.429320252932</v>
       </c>
       <c r="R3">
-        <v>8582.093133970786</v>
+        <v>11100.86388227639</v>
       </c>
       <c r="S3">
-        <v>0.4213238929529156</v>
+        <v>0.3843936541221641</v>
       </c>
       <c r="T3">
-        <v>0.4213238929529157</v>
+        <v>0.3843936541221641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H4">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I4">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J4">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N4">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q4">
-        <v>1.839408627203333</v>
+        <v>2.998742623931999</v>
       </c>
       <c r="R4">
-        <v>16.55467764483</v>
+        <v>26.988683615388</v>
       </c>
       <c r="S4">
-        <v>0.000812724952178796</v>
+        <v>0.0009345469708379649</v>
       </c>
       <c r="T4">
-        <v>0.0008127249521787961</v>
+        <v>0.0009345469708379652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H5">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I5">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J5">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N5">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O5">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P5">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q5">
-        <v>840.4215494788099</v>
+        <v>1084.881253461852</v>
       </c>
       <c r="R5">
-        <v>7563.793945309289</v>
+        <v>9763.931281156667</v>
       </c>
       <c r="S5">
-        <v>0.371332151817015</v>
+        <v>0.3380992023290956</v>
       </c>
       <c r="T5">
-        <v>0.3713321518170151</v>
+        <v>0.3380992023290957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H6">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I6">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J6">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N6">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q6">
-        <v>3.541279404866667</v>
+        <v>4.60710789748</v>
       </c>
       <c r="R6">
-        <v>31.87151464380001</v>
+        <v>41.46397107732</v>
       </c>
       <c r="S6">
-        <v>0.001564680132738045</v>
+        <v>0.001435788018468915</v>
       </c>
       <c r="T6">
-        <v>0.001564680132738046</v>
+        <v>0.001435788018468915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.125705</v>
+        <v>23.445444</v>
       </c>
       <c r="H7">
-        <v>54.377115</v>
+        <v>70.336332</v>
       </c>
       <c r="I7">
-        <v>0.8312548312180357</v>
+        <v>0.8884024692763315</v>
       </c>
       <c r="J7">
-        <v>0.8312548312180358</v>
+        <v>0.8884024692763316</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N7">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q7">
-        <v>2.407002995475</v>
+        <v>1.321572787392</v>
       </c>
       <c r="R7">
-        <v>21.663026959275</v>
+        <v>11.894155086528</v>
       </c>
       <c r="S7">
-        <v>0.001063511046681304</v>
+        <v>0.0004118632373923553</v>
       </c>
       <c r="T7">
-        <v>0.001063511046681304</v>
+        <v>0.0004118632373923554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.50062</v>
       </c>
       <c r="H8">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I8">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J8">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N8">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q8">
-        <v>10.97766511928</v>
+        <v>55.82828031404001</v>
       </c>
       <c r="R8">
-        <v>98.79898607352</v>
+        <v>502.4545228263601</v>
       </c>
       <c r="S8">
-        <v>0.004850375401721671</v>
+        <v>0.01739867564431631</v>
       </c>
       <c r="T8">
-        <v>0.00485037540172167</v>
+        <v>0.01739867564431632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.50062</v>
       </c>
       <c r="H9">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I9">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J9">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P9">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q9">
         <v>131.55383309486</v>
@@ -1013,10 +1013,10 @@
         <v>1183.98449785374</v>
       </c>
       <c r="S9">
-        <v>0.05812579169725645</v>
+        <v>0.04099826215152786</v>
       </c>
       <c r="T9">
-        <v>0.05812579169725646</v>
+        <v>0.04099826215152787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.50062</v>
       </c>
       <c r="H10">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I10">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J10">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N10">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q10">
-        <v>0.25376458468</v>
+        <v>0.31983679986</v>
       </c>
       <c r="R10">
-        <v>2.28388126212</v>
+        <v>2.87853119874</v>
       </c>
       <c r="S10">
-        <v>0.0001121234329874254</v>
+        <v>9.96759475408882E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001121234329874254</v>
+        <v>9.967594754088824E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.50062</v>
       </c>
       <c r="H11">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I11">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J11">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N11">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O11">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P11">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q11">
-        <v>115.94445209484</v>
+        <v>115.71014650146</v>
       </c>
       <c r="R11">
-        <v>1043.50006885356</v>
+        <v>1041.39131851314</v>
       </c>
       <c r="S11">
-        <v>0.05122893732832263</v>
+        <v>0.03606063622971623</v>
       </c>
       <c r="T11">
-        <v>0.05122893732832263</v>
+        <v>0.03606063622971625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>2.50062</v>
       </c>
       <c r="H12">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I12">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J12">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N12">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q12">
-        <v>0.4885544648000001</v>
+        <v>0.4913801654</v>
       </c>
       <c r="R12">
-        <v>4.396990183200001</v>
+        <v>4.4224214886</v>
       </c>
       <c r="S12">
-        <v>0.0002158630758653201</v>
+        <v>0.0001531367985500184</v>
       </c>
       <c r="T12">
-        <v>0.00021586307586532</v>
+        <v>0.0001531367985500184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>2.50062</v>
       </c>
       <c r="H13">
-        <v>7.50186</v>
+        <v>7.501860000000001</v>
       </c>
       <c r="I13">
-        <v>0.1146798127874444</v>
+        <v>0.0947543148563013</v>
       </c>
       <c r="J13">
-        <v>0.1146798127874444</v>
+        <v>0.09475431485630131</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N13">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q13">
-        <v>0.3320698329</v>
+        <v>0.14095494816</v>
       </c>
       <c r="R13">
-        <v>2.9886284961</v>
+        <v>1.26859453344</v>
       </c>
       <c r="S13">
-        <v>0.0001467218512908713</v>
+        <v>4.392808464996745E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001467218512908713</v>
+        <v>4.392808464996747E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H14">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I14">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J14">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N14">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q14">
-        <v>5.011849815767112</v>
+        <v>6.279518734530889</v>
       </c>
       <c r="R14">
-        <v>45.10664834190401</v>
+        <v>56.515668610778</v>
       </c>
       <c r="S14">
-        <v>0.002214437478223464</v>
+        <v>0.001956988627447198</v>
       </c>
       <c r="T14">
-        <v>0.002214437478223464</v>
+        <v>0.001956988627447199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H15">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I15">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J15">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P15">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q15">
-        <v>60.06086421801646</v>
+        <v>14.79706619784189</v>
       </c>
       <c r="R15">
-        <v>540.5477779621481</v>
+        <v>133.173595780577</v>
       </c>
       <c r="S15">
-        <v>0.02653731328509674</v>
+        <v>0.004611450573357228</v>
       </c>
       <c r="T15">
-        <v>0.02653731328509675</v>
+        <v>0.00461145057335723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H16">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I16">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J16">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N16">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q16">
-        <v>0.1158561472915556</v>
+        <v>0.03597497836966666</v>
       </c>
       <c r="R16">
-        <v>1.042705325624</v>
+        <v>0.323774805327</v>
       </c>
       <c r="S16">
-        <v>5.118992070310673E-05</v>
+        <v>1.12114680309742E-05</v>
       </c>
       <c r="T16">
-        <v>5.118992070310673E-05</v>
+        <v>1.12114680309742E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H17">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I17">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J17">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N17">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O17">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P17">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q17">
-        <v>52.93440586470133</v>
+        <v>13.01498145104966</v>
       </c>
       <c r="R17">
-        <v>476.409652782312</v>
+        <v>117.134833059447</v>
       </c>
       <c r="S17">
-        <v>0.02338855642990669</v>
+        <v>0.004056070498855383</v>
       </c>
       <c r="T17">
-        <v>0.02338855642990669</v>
+        <v>0.004056070498855384</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H18">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I18">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J18">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N18">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q18">
-        <v>0.2230493987377778</v>
+        <v>0.05527003405888888</v>
       </c>
       <c r="R18">
-        <v>2.00744458864</v>
+        <v>0.49743030653</v>
       </c>
       <c r="S18">
-        <v>9.855222447134405E-05</v>
+        <v>1.72247002779179E-05</v>
       </c>
       <c r="T18">
-        <v>9.855222447134405E-05</v>
+        <v>1.72247002779179E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.141657333333334</v>
+        <v>0.2812676666666666</v>
       </c>
       <c r="H19">
-        <v>3.424972</v>
+        <v>0.843803</v>
       </c>
       <c r="I19">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="J19">
-        <v>0.05235703515691295</v>
+        <v>0.0106578868625503</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N19">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q19">
-        <v>0.15160638558</v>
+        <v>0.01585449583466667</v>
       </c>
       <c r="R19">
-        <v>1.36445747022</v>
+        <v>0.142690462512</v>
       </c>
       <c r="S19">
-        <v>6.698581851159556E-05</v>
+        <v>4.940994581596628E-06</v>
       </c>
       <c r="T19">
-        <v>6.698581851159556E-05</v>
+        <v>4.94099458159663E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H20">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I20">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J20">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N20">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q20">
-        <v>0.1635281189924445</v>
+        <v>3.644333052686445</v>
       </c>
       <c r="R20">
-        <v>1.471753070932</v>
+        <v>32.798997474178</v>
       </c>
       <c r="S20">
-        <v>7.225332137867122E-05</v>
+        <v>0.001135742823652885</v>
       </c>
       <c r="T20">
-        <v>7.225332137867122E-05</v>
+        <v>0.001135742823652885</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H21">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I21">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J21">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>157.825459</v>
       </c>
       <c r="O21">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P21">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q21">
-        <v>1.959683652078778</v>
+        <v>8.587511194297445</v>
       </c>
       <c r="R21">
-        <v>17.637152868709</v>
+        <v>77.28760074867699</v>
       </c>
       <c r="S21">
-        <v>0.000865867311301478</v>
+        <v>0.002676265882113189</v>
       </c>
       <c r="T21">
-        <v>0.0008658673113014782</v>
+        <v>0.00267626588211319</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H22">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I22">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J22">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N22">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q22">
-        <v>0.003780188660222222</v>
+        <v>0.02087816093633333</v>
       </c>
       <c r="R22">
-        <v>0.034021697942</v>
+        <v>0.187903448427</v>
       </c>
       <c r="S22">
-        <v>1.670239881813013E-06</v>
+        <v>6.506601101408928E-06</v>
       </c>
       <c r="T22">
-        <v>1.670239881813013E-06</v>
+        <v>6.506601101408929E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H23">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I23">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J23">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N23">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O23">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P23">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q23">
-        <v>1.727159459927333</v>
+        <v>7.553274237616334</v>
       </c>
       <c r="R23">
-        <v>15.544435139346</v>
+        <v>67.97946813854699</v>
       </c>
       <c r="S23">
-        <v>0.0007631287407892685</v>
+        <v>0.002353949786266437</v>
       </c>
       <c r="T23">
-        <v>0.0007631287407892686</v>
+        <v>0.002353949786266437</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H24">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I24">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J24">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N24">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q24">
-        <v>0.007277721791111113</v>
+        <v>0.03207609061444445</v>
       </c>
       <c r="R24">
-        <v>0.06549949612000001</v>
+        <v>0.28868481553</v>
       </c>
       <c r="S24">
-        <v>3.215591145532625E-06</v>
+        <v>9.996394182288082E-06</v>
       </c>
       <c r="T24">
-        <v>3.215591145532625E-06</v>
+        <v>9.996394182288084E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.03725033333333334</v>
+        <v>0.1632343333333333</v>
       </c>
       <c r="H25">
-        <v>0.111751</v>
+        <v>0.489703</v>
       </c>
       <c r="I25">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="J25">
-        <v>0.0017083208376069</v>
+        <v>0.006185329004816848</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N25">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q25">
-        <v>0.004946658015</v>
+        <v>0.009201192901333335</v>
       </c>
       <c r="R25">
-        <v>0.044519922135</v>
+        <v>0.082810736112</v>
       </c>
       <c r="S25">
-        <v>2.185633110136175E-06</v>
+        <v>2.86751750063891E-06</v>
       </c>
       <c r="T25">
-        <v>2.185633110136175E-06</v>
+        <v>2.86751750063891E-06</v>
       </c>
     </row>
   </sheetData>
